--- a/RHS_Vehicles.xlsx
+++ b/RHS_Vehicles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AFRF-Roh" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="586">
   <si>
     <t>Vehicles</t>
   </si>
@@ -4129,10 +4129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5790,109 +5790,89 @@
         <v>251</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>553</v>
-      </c>
-      <c r="C110" t="s">
-        <v>250</v>
-      </c>
-      <c r="D110" t="s">
-        <v>250</v>
-      </c>
-      <c r="E110" t="s">
-        <v>251</v>
-      </c>
-      <c r="F110" t="s">
-        <v>251</v>
-      </c>
-      <c r="G110" t="s">
-        <v>251</v>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>554</v>
+      </c>
+      <c r="B111" t="s">
+        <v>556</v>
+      </c>
+      <c r="C111" t="s">
+        <v>498</v>
+      </c>
+      <c r="D111" t="s">
+        <v>498</v>
+      </c>
+      <c r="E111" t="s">
+        <v>500</v>
+      </c>
+      <c r="F111" t="s">
+        <v>500</v>
+      </c>
+      <c r="G111" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>554</v>
-      </c>
-      <c r="B112" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C112" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D112" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E112" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F112" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G112" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>560</v>
-      </c>
-      <c r="C113" t="s">
-        <v>499</v>
-      </c>
-      <c r="D113" t="s">
-        <v>499</v>
-      </c>
-      <c r="E113" t="s">
         <v>501</v>
       </c>
-      <c r="F113" t="s">
-        <v>501</v>
-      </c>
-      <c r="G113" t="s">
-        <v>501</v>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>544</v>
+      </c>
+      <c r="B114" t="s">
+        <v>557</v>
+      </c>
+      <c r="C114" t="s">
+        <v>385</v>
+      </c>
+      <c r="D114" t="s">
+        <v>578</v>
+      </c>
+      <c r="E114" t="s">
+        <v>579</v>
+      </c>
+      <c r="F114" t="s">
+        <v>580</v>
+      </c>
+      <c r="G114" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>544</v>
       </c>
-      <c r="B115" t="s">
-        <v>557</v>
-      </c>
       <c r="C115" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D115" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E115" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F115" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G115" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>544</v>
-      </c>
-      <c r="C116" t="s">
-        <v>386</v>
-      </c>
-      <c r="D116" t="s">
-        <v>582</v>
-      </c>
-      <c r="E116" t="s">
-        <v>583</v>
-      </c>
-      <c r="F116" t="s">
-        <v>584</v>
-      </c>
-      <c r="G116" t="s">
         <v>585</v>
       </c>
     </row>

--- a/RHS_Vehicles.xlsx
+++ b/RHS_Vehicles.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AFRF-Roh" sheetId="1" r:id="rId1"/>
     <sheet name="AFRF-Sort" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="US" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Roh" localSheetId="1">'AFRF-Sort'!$A$1:$EU$2</definedName>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="634">
   <si>
     <t>Vehicles</t>
   </si>
@@ -208,108 +208,72 @@
     <t>rhsusf_M1078A1P2_B_wd_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1078A1P2_B_wd_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1078A1P2_B_d_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1078A1P2_B_d_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1078A1P2_B_d_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1078A1P2_wd_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1078A1P2_wd_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1078A1P2_wd_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1078A1P2_d_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1078A1P2_d_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1078A1P2_d_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1083A1P2_B_wd_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1083A1P2_B_wd_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1083A1P2_B_wd_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1083A1P2_B_d_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1083A1P2_B_d_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1083A1P2_B_d_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1083A1P2_wd_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1083A1P2_wd_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1083A1P2_wd_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1083A1P2_d_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1083A1P2_d_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1083A1P2_d_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1078A1P2_B_M2_wd_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1078A1P2_B_M2_wd_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1078A1P2_B_M2_wd_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1078A1P2_B_M2_d_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1078A1P2_B_M2_d_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1078A1P2_B_M2_d_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1083A1P2_B_M2_wd_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1083A1P2_B_M2_wd_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1083A1P2_B_M2_wd_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1083A1P2_B_M2_d_fmtv_usarmy</t>
   </si>
   <si>
     <t>rhsusf_M1083A1P2_B_M2_d_open_fmtv_usarmy</t>
   </si>
   <si>
-    <t>rhsusf_M1083A1P2_B_M2_d_flatbed_fmtv_usarmy</t>
-  </si>
-  <si>
     <t>rhsusf_M1083A1P2_B_M2_d_MHQ_fmtv_usarmy</t>
   </si>
   <si>
@@ -1955,6 +1919,186 @@
   </si>
   <si>
     <t>rhs_prv17</t>
+  </si>
+  <si>
+    <t>army_desert</t>
+  </si>
+  <si>
+    <t>army_wood</t>
+  </si>
+  <si>
+    <t>marine_desert</t>
+  </si>
+  <si>
+    <t>marine_wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RHS_A11</t>
+  </si>
+  <si>
+    <t>RHS_A12</t>
+  </si>
+  <si>
+    <t>RHS_A13</t>
+  </si>
+  <si>
+    <t>dorb_commandveh_radio</t>
+  </si>
+  <si>
+    <t>dorb_commandveh_arty</t>
+  </si>
+  <si>
+    <t>dorb_veh_unarmored, dorb_veh_car</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ucp_rifleman,"rhsusf_army_ucp_rifleman_m16","rhsusf_army_ucp_rifleman_m590","rhsusf_army_ucp_riflemanl",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ucp_riflemanat,"rhsusf_army_ucp_grenadier","rhsusf_army_ucp_autorifleman","rhsusf_army_ucp_autoriflemana",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ucp_machinegunner,"rhsusf_army_ucp_machinegunnera","rhsusf_army_ucp_squadleader","rhsusf_army_ucp_teamleader",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ucp_javelin,"rhsusf_army_ucp_aa","rhsusf_army_ucp_jfo","rhsusf_army_ucp_fso","rhsusf_army_ucp_engineer","rhsusf_army_ucp_marksman",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ucp_medic,"rhsusf_army_ucp_uav","rhsusf_army_ucp_sniper","rhsusf_army_ucp_crewman","rhsusf_army_ucp_combatcrewman",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ucp_driver,"rhsusf_army_ucp_helipilot","rhsusf_army_ucp_helicrew",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ocp_rifleman,"rhsusf_army_ocp_rifleman_m16","rhsusf_army_ocp_rifleman_m590","rhsusf_army_ocp_riflemanl",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ocp_riflemanat,"rhsusf_army_ocp_grenadier","rhsusf_army_ocp_autorifleman","rhsusf_army_ocp_autoriflemana",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ocp_machinegunner, "rhsusf_army_ocp_machinegunnera", "rhsusf_army_ocp_squadleader", "rhsusf_army_ocp_teamleader",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ocp_javelin, "rhsusf_army_ocp_aa", "rhsusf_army_ocp_jfo", "rhsusf_army_ocp_fso", "rhsusf_army_ocp_engineer",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ocp_marksman, "rhsusf_army_ocp_medic", "rhsusf_army_ocp_uav", "rhsusf_army_ocp_sniper", "rhsusf_army_ocp_crewman",</t>
+  </si>
+  <si>
+    <t>rhsusf_army_ocp_combatcrewman, "rhsusf_army_ocp_driver", "rhsusf_army_ocp_helipilot", "rhsusf_army_ocp_helicrew",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_d_rifleman, "rhsusf_usmc_marpat_d_rifleman_m4", "rhsusf_usmc_marpat_d_grenadier", "rhsusf_usmc_marpat_d_riflemanat",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_d_rifleman_m590, "rhsusf_usmc_marpat_d_autorifleman", "rhsusf_usmc_marpat_d_autorifleman_m249", "rhsusf_usmc_marpat_d_autorifleman_m249_ass",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_d_machinegunner, "rhsusf_usmc_marpat_d_machinegunner_ass", "rhsusf_usmc_marpat_d_officer", "rhsusf_usmc_marpat_d_squadleader",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_d_teamleader, "rhsusf_usmc_marpat_d_engineer", "rhsusf_usmc_marpat_d_uav", "rhsusf_usmc_marpat_d_javelin", "rhsusf_usmc_marpat_d_stinger",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_d_spotter, "rhsusf_usmc_marpat_d_marksman", "rhsusf_usmc_marpat_d_sniper", "rhsusf_usmc_marpat_d_crewman", "rhsusf_usmc_marpat_d_combatcrewman",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_d_driver, "rhsusf_usmc_marpat_d_helipilot", "rhsusf_usmc_marpat_d_helicrew",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_wd_rifleman, "rhsusf_usmc_marpat_wd_rifleman_m4", "rhsusf_usmc_marpat_wd_grenadier", "rhsusf_usmc_marpat_wd_riflemanat",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_wd_rifleman_m590, "rhsusf_usmc_marpat_wd_autorifleman", "rhsusf_usmc_marpat_wd_autorifleman_m249", "rhsusf_usmc_marpat_wd_autorifleman_m249_ass",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_wd_machinegunner, "rhsusf_usmc_marpat_wd_machinegunner_ass", "rhsusf_usmc_marpat_wd_officer", "rhsusf_usmc_marpat_wd_squadleader",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_wd_teamleader, "rhsusf_usmc_marpat_wd_engineer", "rhsusf_usmc_marpat_wd_uav", "rhsusf_usmc_marpat_wd_javelin", "rhsusf_usmc_marpat_wd_stinger",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_wd_marksman, "rhsusf_usmc_marpat_wd_spotter", "rhsusf_usmc_marpat_wd_sniper", "rhsusf_usmc_marpat_wd_crewman", "rhsusf_usmc_marpat_wd_combatcrewman",</t>
+  </si>
+  <si>
+    <t>rhsusf_usmc_marpat_wd_driver, "rhsusf_usmc_marpat_wd_helipilot", "rhsusf_usmc_marpat_wd_helicrew",</t>
+  </si>
+  <si>
+    <t>rhsusf_assault_eagleaiii_ucp, "rhsusf_assault_eagleaiii_ocp", "rhsusf_assault_eagleaiii_ocp_engineer", "rhsusf_assault_eagleaiii_ucp_engineer",</t>
+  </si>
+  <si>
+    <t>rhsusf_assault_eagleaiii_ocp_medic, "rhsusf_assault_eagleaiii_ucp_medic", "rhsusf_assault_eagleaiii_ocp_demo", "rhsusf_assault_eagleaiii_ucp_demo", "rhsusf_assault_eagleaiii_ocp_ar", "rhsusf_assault_eagleaiii_ucp_ar", "rhsusf_assault_eagleaiii_ocp_mg", "rhsusf_assault_eagleaiii_ucp_mg", "rhsusf_assault_eagleaiii_ocp_at",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_assault_eagleaiii_ucp_at", "rhsusf_assault_eagleaiii_coy", "rhsusf_assault_eagleaiii_coy_engineer", "rhsusf_assault_eagleaiii_coy_demo", "rhsusf_assault_eagleaiii_coy_m27", "rhsusf_assault_eagleaiii_coy_ar",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_assault_eagleaiii_coy_mg", "rhsusf_assault_eagleaiii_coy_at", "rhsusf_assault_eagleaiii_coy_aa", "rhsusf_falconii", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhsusf_army_ocp_rifleman_1stcav, "rhsusf_army_ocp_rifleman_82nd", "rhsusf_army_ocp_rifleman_101st", "rhsusf_army_ocp_rifleman_10th", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhsusf_army_ocp_rifleman_m4, "rhsusf_army_ocp_officer", "rhsusf_army_ocp_explosives", "rhsusf_army_ucp_rifleman_1stcav", </t>
+  </si>
+  <si>
+    <t>rhsusf_army_ucp_rifleman_82nd, "rhsusf_army_ucp_rifleman_101st", "rhsusf_army_ucp_rifleman_10th", "rhsusf_army_ucp_rifleman_m4",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_army_ucp_officer", "rhsusf_army_ucp_explosives", "rhsusf_usmc_marpat_wd_rifleman_light", "rhsusf_usmc_marpat_wd_jfo", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_marpat_wd_fso", "rhsusf_usmc_marpat_wd_explosives", "rhsusf_usmc_marpat_d_rifleman_light", "rhsusf_usmc_marpat_d_fso", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_marpat_d_jfo", "rhsusf_usmc_marpat_d_explosives", "rhsusf_usmc_fr_marpat_wd_rifleman", "rhsusf_usmc_fr_marpat_wd_light", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_fr_marpat_wd_rifleman_cqb", "rhsusf_usmc_fr_marpat_wd_riflemanat", "rhsusf_usmc_fr_marpat_wd_rifleman_m590", "rhsusf_usmc_fr_marpat_wd_grenadier", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_fr_marpat_wd_autorifleman", "rhsusf_usmc_fr_marpat_wd_autorifleman_m249", "rhsusf_usmc_fr_marpat_wd_autorifleman_m249_ass", "rhsusf_usmc_fr_marpat_wd_machinegunner",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_fr_marpat_wd_machinegunner_ass", "rhsusf_usmc_fr_marpat_wd_squadleader", "rhsusf_usmc_fr_marpat_wd_teamleader", "rhsusf_usmc_fr_marpat_wd_engineer",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_fr_marpat_wd_marksman", "rhsusf_usmc_fr_marpat_wd_spotter", "rhsusf_usmc_fr_marpat_wd_sniper", "rhsusf_usmc_fr_marpat_d_rifleman", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_fr_marpat_d_light", "rhsusf_usmc_fr_marpat_d_rifleman_cqb", "rhsusf_usmc_fr_marpat_d_riflemanat",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_fr_marpat_d_rifleman_m590", "rhsusf_usmc_fr_marpat_d_grenadier", "rhsusf_usmc_fr_marpat_d_autorifleman", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_fr_marpat_d_autorifleman_m249", "rhsusf_usmc_fr_marpat_d_autorifleman_m249_ass", "rhsusf_usmc_fr_marpat_d_machinegunner", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_fr_marpat_d_machinegunner_ass", "rhsusf_usmc_fr_marpat_d_squadleader", "rhsusf_usmc_fr_marpat_d_teamleader", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_fr_marpat_d_engineer", "rhsusf_usmc_fr_marpat_d_marksman", "rhsusf_usmc_fr_marpat_d_spotter", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_usmc_fr_marpat_d_sniper", "rhsusf_socom_marsoc_cso_cqb", "rhsusf_socom_marsoc_cso", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_socom_marsoc_cso_light", "rhsusf_socom_marsoc_cso_breacher", "rhsusf_socom_marsoc_cso_grenadier", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_socom_marsoc_teamleader", "rhsusf_socom_marsoc_teamchief", "rhsusf_socom_marsoc_elementleader", </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_socom_marsoc_jfo", "rhsusf_socom_marsoc_cso_eod", "rhsusf_socom_marsoc_cso_mechanic", "rhsusf_socom_marsoc_marksman",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_socom_marsoc_spotter", "rhsusf_socom_marsoc_sniper", "rhsusf_assault_eagleaiii_coy_medic", "rhsusf_navy_marpat_wd_medic",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "rhsusf_navy_marpat_d_medic", "rhsusf_navy_sarc", "rhsusf_airforce_jetpilot", "rhsusf_airforce_pilot"</t>
   </si>
 </sst>
 </file>
@@ -2278,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,1826 +2444,1826 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D1" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E1" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F1" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="H1" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="I1" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="J1" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="K1" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="L1" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C27" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D27" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E27" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F27" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G27" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B28" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B33" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="J33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E34" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="H34" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="I34" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B36" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C36" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G36" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H36" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I36" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C37" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E37" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F37" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H37" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I37" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D39" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E39" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="H39" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="I39" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D40" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E40" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="H40" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="I40" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D41" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="E41" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="H41" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="I41" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D42" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="E42" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="H42" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="I42" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D43" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="E43" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="H43" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="I43" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D45" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E45" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H45" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D46" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E46" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="H46" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="I46" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D47" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E47" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H47" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I47" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D48" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E48" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H48" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I48" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D49" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E49" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="H49" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="I49" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D50" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E50" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H50" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="I50" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D51" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E51" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="H51" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="I51" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D52" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E52" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H52" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="I52" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B54" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E55" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E56" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E57" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E58" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E59" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E60" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E61" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B63" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E63" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="H63" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I63" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="J63" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D64" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E64" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H64" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I64" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="J64" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H65" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I65" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="J65" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E66" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H66" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I66" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="J66" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H67" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I67" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="J67" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D68" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E68" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="H68" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="I68" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="J68" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D69" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H69" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I69" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J69" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D70" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E70" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="H70" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="I70" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="J70" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E71" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="H71" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="I71" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="J71" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D72" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H72" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I72" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="J72" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D74" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D75" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D77" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B80" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D80" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E80" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="H80" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="I80" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D81" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E81" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H81" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="I81" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D82" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E82" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="H82" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I82" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D83" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E83" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H83" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="I83" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D85" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E85" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B87" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E87" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E88" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E89" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E90" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B92" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="J92" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J93" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J94" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J95" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J96" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J97" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J98" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J99" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J100" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J101" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J102" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J103" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J104" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J105" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J106" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E108" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="K108" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="L108" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="K109" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="L109" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="K110" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="L110" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="K111" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="L111" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="K112" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="L112" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="K113" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="L113" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="K114" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="L114" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K115" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E116" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I116" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="K116" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="L116" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E117" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="I117" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="K117" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="L117" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E118" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="K118" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="L118" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E119" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="K119" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="L119" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E120" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="K120" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="L120" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E121" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="K121" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="L121" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K122" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="L122" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K123" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="L123" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K124" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="L124" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="K125" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="L125" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="K126" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="L126" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="K127" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="L127" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B128" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="K128" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="L128" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="K129" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="L129" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="K130" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L130" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B134" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C134" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C135" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C140" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C141" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4131,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,1732 +4292,1732 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D1" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E1" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F1" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G18" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C27" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D27" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E27" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F27" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G27" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B28" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B33" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B35" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C35" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D35" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E35" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="F35" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G35" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C36" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D36" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F36" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G36" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C37" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D37" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="E37" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F37" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G37" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C38" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D38" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="E38" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="F38" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G38" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C40" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D40" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E40" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G40" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C41" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D41" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E41" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G41" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C42" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D42" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E42" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F42" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C43" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D43" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E43" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F43" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G43" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B45" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C45" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D45" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E45" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G45" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C46" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E46" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F46" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G46" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C47" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D47" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E47" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F47" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="G47" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C48" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D48" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E48" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F48" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G48" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B50" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C50" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D50" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E50" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F50" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G50" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B52" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E52" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F52" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G52" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E54" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F54" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G54" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E55" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F55" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G55" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E56" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F56" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G56" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E57" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F57" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G57" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E58" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F58" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G58" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E59" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F59" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B61" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E61" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F61" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G61" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E62" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F62" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G62" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C63" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E63" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F63" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G63" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D64" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E64" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F64" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G64" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C65" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D65" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F65" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G65" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D66" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E66" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F66" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G66" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E67" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F67" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G67" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C68" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D68" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E68" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F68" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="G68" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C69" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D69" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E69" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F69" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G69" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D70" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E70" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G70" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C72" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D72" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C73" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D74" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D75" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B77" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E77" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F77" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G77" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E78" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F78" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G78" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E79" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G79" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F80" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G80" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B82" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C82" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D82" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C83" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D83" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C84" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D84" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C85" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C86" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D86" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C87" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D87" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C88" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D88" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C89" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D89" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C90" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D90" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C91" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D91" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C92" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D92" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C93" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D93" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C94" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D94" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C95" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D95" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C96" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D96" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C99" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D99" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E99" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F99" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G99" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C100" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D100" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E100" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F100" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G100" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C101" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D101" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E101" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="F101" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G101" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C102" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D102" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E102" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F102" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G102" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C103" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D103" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E103" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F103" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G103" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C104" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D104" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E104" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F104" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="G104" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C108" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D108" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E108" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F108" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G108" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C109" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D109" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E109" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F109" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G109" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B111" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C111" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D111" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E111" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F111" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G111" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C112" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D112" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E112" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F112" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G112" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B114" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C114" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D114" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E114" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F114" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G114" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C115" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D115" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E115" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F115" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G115" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5883,662 +6027,990 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B51"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>583</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>550</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>550</v>
+      </c>
+      <c r="C17" t="s">
+        <v>425</v>
+      </c>
+      <c r="D17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C18" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>550</v>
+      </c>
+      <c r="C19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>550</v>
+      </c>
+      <c r="C20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>551</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>551</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>551</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>551</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>551</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>551</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>551</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>551</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>584</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>551</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>537</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>537</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>537</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>537</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>537</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>537</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>537</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>537</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>537</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>537</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>537</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>549</v>
+      </c>
+      <c r="C55" t="s">
+        <v>430</v>
+      </c>
+      <c r="D55" t="s">
+        <v>435</v>
+      </c>
+      <c r="E55" t="s">
+        <v>430</v>
+      </c>
+      <c r="F55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>412</v>
+      </c>
+      <c r="D67" t="s">
+        <v>410</v>
+      </c>
+      <c r="E67" t="s">
+        <v>417</v>
+      </c>
+      <c r="F67" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>413</v>
+      </c>
+      <c r="D68" t="s">
+        <v>411</v>
+      </c>
+      <c r="E68" t="s">
+        <v>419</v>
+      </c>
+      <c r="F68" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>415</v>
+      </c>
+      <c r="D69" t="s">
+        <v>414</v>
+      </c>
+      <c r="E69" t="s">
+        <v>421</v>
+      </c>
+      <c r="F69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>408</v>
+      </c>
+      <c r="D70" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>392</v>
+      </c>
+      <c r="D73" t="s">
+        <v>395</v>
+      </c>
+      <c r="E73" t="s">
+        <v>401</v>
+      </c>
+      <c r="F73" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>393</v>
+      </c>
+      <c r="D74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E74" t="s">
+        <v>402</v>
+      </c>
+      <c r="F74" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>394</v>
+      </c>
+      <c r="D75" t="s">
+        <v>397</v>
+      </c>
+      <c r="E75" t="s">
+        <v>403</v>
+      </c>
+      <c r="F75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D76" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D79" t="s">
+        <v>422</v>
+      </c>
+      <c r="E79" t="s">
+        <v>422</v>
+      </c>
+      <c r="F79" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>99</v>
+      <c r="D80" t="s">
+        <v>579</v>
+      </c>
+      <c r="E80" t="s">
+        <v>580</v>
+      </c>
+      <c r="F80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/RHS_Vehicles.xlsx
+++ b/RHS_Vehicles.xlsx
@@ -6029,8 +6029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:B144"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
